--- a/biology/Microbiologie/Hantkenina/Hantkenina.xlsx
+++ b/biology/Microbiologie/Hantkenina/Hantkenina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hantkenina est un genre fossile de foraminifères de la famille des Hantkeninidae, de l'ordre des Rotaliida et de la classe des Globothalamea.
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Hantkenina est décrit en 1924 par le scientifique américain Joseph Augustine Cushman (d) (1881-1949)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Hantkenina est décrit en 1924 par le scientifique américain Joseph Augustine Cushman (d) (1881-1949),.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le World Register of Marine Species                               (16 mai 2018)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le World Register of Marine Species                               (16 mai 2018) :
 †Hantkenina alabamensis Cushman, 1925
 †Hantkenina australis Finlay, 1939
 †Hantkenina brevispina Cushman, 1925
@@ -588,7 +604,9 @@
           <t>Stratigraphie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La strate ultime de l'Yprésien coïncide avec l'apparition des foraminifères du genre Hantkenina. La base du Rupélien a été définie par l'extinction de Hantkenina.
 </t>
@@ -619,9 +637,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Hantkenina lui a été donné en l'honneur de Max Hantken von Prudnik (d) (1821-1893), paléontologue austro-hongrois[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Hantkenina lui a été donné en l'honneur de Max Hantken von Prudnik (d) (1821-1893), paléontologue austro-hongrois.
 </t>
         </is>
       </c>
